--- a/results/tables/performance/per_class_f1_transposed.xlsx
+++ b/results/tables/performance/per_class_f1_transposed.xlsx
@@ -485,10 +485,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>0.2014742014742015</v>
+        <v>0.201</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>0.243436754176611</v>
+        <v>0.243</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.1790281329923274</v>
+        <v>0.179</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.1883656509695291</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="3">
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.5200433369447454</v>
+        <v>0.52</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.5075268817204301</v>
+        <v>0.508</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.5039018952062431</v>
+        <v>0.504</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.472636815920398</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="4">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.82877429868467</v>
+        <v>0.829</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8253758595237171</v>
+        <v>0.825</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8299797640410829</v>
+        <v>0.83</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8254004929143561</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="5">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="B5" s="7" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.385</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.3098591549295774</v>
+        <v>0.31</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.34</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>0.28</v>
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.6996545907301791</v>
+        <v>0.7</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.695249500998004</v>
+        <v>0.695</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6898603421204859</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6898490202377128</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B7" s="7" t="n">
-        <v>0.6270270270270271</v>
+        <v>0.627</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.5095541401273885</v>
+        <v>0.51</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.6267029972752044</v>
+        <v>0.627</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.6246575342465753</v>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/performance/per_class_f1_transposed.xlsx
+++ b/results/tables/performance/per_class_f1_transposed.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,10 +485,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -499,22 +500,27 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>RESNET101</t>
+          <t>CONVNEXT_TINY</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>RESNET152</t>
+          <t>DENSENET121</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>RESNET18</t>
+          <t>EFFICIENTNET_B3</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>RESNET34</t>
+          <t>RESNET50</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>SWIN_TINY</t>
         </is>
       </c>
     </row>
@@ -525,16 +531,19 @@
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>0.201</v>
+        <v>0.207</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>0.243</v>
+        <v>0.226</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.179</v>
+        <v>0.278</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.188</v>
+        <v>0.213</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0.263</v>
       </c>
     </row>
     <row r="3">
@@ -544,16 +553,19 @@
         </is>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.52</v>
+        <v>0.57</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.508</v>
+        <v>0.543</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.504</v>
+        <v>0.435</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.473</v>
+        <v>0.546</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>0.554</v>
       </c>
     </row>
     <row r="4">
@@ -563,16 +575,19 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.829</v>
+        <v>0.843</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.825</v>
+        <v>0.842</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.83</v>
+        <v>0.839</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.825</v>
+        <v>0.841</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.846</v>
       </c>
     </row>
     <row r="5">
@@ -582,16 +597,19 @@
         </is>
       </c>
       <c r="B5" s="7" t="n">
-        <v>0.385</v>
+        <v>0.311</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.31</v>
+        <v>0.308</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.34</v>
+        <v>0.364</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.28</v>
+        <v>0.174</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>0.367</v>
       </c>
     </row>
     <row r="6">
@@ -601,16 +619,19 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.7</v>
+        <v>0.724</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.695</v>
+        <v>0.719</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.708</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.713</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.732</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +641,19 @@
         </is>
       </c>
       <c r="B7" s="7" t="n">
-        <v>0.627</v>
+        <v>0.626</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.51</v>
+        <v>0.596</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.627</v>
+        <v>0.583</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.625</v>
+        <v>0.663</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>0.624</v>
       </c>
     </row>
   </sheetData>
